--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
@@ -540,7 +540,7 @@
         <v>0.7997108917301441</v>
       </c>
       <c r="J2">
-        <v>0.7997108917301441</v>
+        <v>0.7997108917301442</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,7 +558,7 @@
         <v>0.393072250513715</v>
       </c>
       <c r="P2">
-        <v>0.393072250513715</v>
+        <v>0.3930722505137151</v>
       </c>
       <c r="Q2">
         <v>0.3943571456366667</v>
@@ -570,7 +570,7 @@
         <v>0.3143441599726977</v>
       </c>
       <c r="T2">
-        <v>0.3143441599726977</v>
+        <v>0.3143441599726978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,7 +602,7 @@
         <v>0.7997108917301441</v>
       </c>
       <c r="J3">
-        <v>0.7997108917301441</v>
+        <v>0.7997108917301442</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,13 +620,13 @@
         <v>0.6069277494862849</v>
       </c>
       <c r="P3">
-        <v>0.606927749486285</v>
+        <v>0.6069277494862849</v>
       </c>
       <c r="Q3">
-        <v>0.6089117066450001</v>
+        <v>0.6089117066449999</v>
       </c>
       <c r="R3">
-        <v>5.480205359805001</v>
+        <v>5.480205359805</v>
       </c>
       <c r="S3">
         <v>0.4853667317574464</v>
@@ -655,7 +655,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09528066666666668</v>
+        <v>0.09528066666666667</v>
       </c>
       <c r="H4">
         <v>0.285842</v>
@@ -682,19 +682,19 @@
         <v>0.393072250513715</v>
       </c>
       <c r="P4">
-        <v>0.393072250513715</v>
+        <v>0.3930722505137151</v>
       </c>
       <c r="Q4">
-        <v>0.09876749442355556</v>
+        <v>0.09876749442355555</v>
       </c>
       <c r="R4">
-        <v>0.8889074498120001</v>
+        <v>0.888907449812</v>
       </c>
       <c r="S4">
-        <v>0.07872809054101738</v>
+        <v>0.07872809054101737</v>
       </c>
       <c r="T4">
-        <v>0.07872809054101738</v>
+        <v>0.07872809054101741</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.09528066666666668</v>
+        <v>0.09528066666666667</v>
       </c>
       <c r="H5">
         <v>0.285842</v>
@@ -744,10 +744,10 @@
         <v>0.6069277494862849</v>
       </c>
       <c r="P5">
-        <v>0.606927749486285</v>
+        <v>0.6069277494862849</v>
       </c>
       <c r="Q5">
-        <v>0.1525030908046667</v>
+        <v>0.1525030908046666</v>
       </c>
       <c r="R5">
         <v>1.372527817242</v>
